--- a/biology/Botanique/Shorea/Shorea.xlsx
+++ b/biology/Botanique/Shorea/Shorea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Shorea est un genre de plantes de la famille des Dipterocarpaceae et regroupant environ 200 espèces d'arbres de grande taille, originaires du sud-est asiatique, en particulier de Malaisie, Sumatra et Bornéo.
 </t>
@@ -511,7 +523,9 @@
           <t>Statut de conservation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La moitié des 200 espèces de Shorea est en danger critique d'extinction.
 </t>
@@ -542,7 +556,9 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Shorea d'Asie du Sud-Est donnent des bois appréciés sous les noms de balau ou red meranti.
 Plusieurs ont des fruits dont les amandes oléagineuses donnent des substituts autorisés du beurre de cacao.
@@ -575,11 +591,48 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce genre a été décrit en 1805 par le botaniste allemand Carl Friedrich von Gaertner (1772-1850), à la suite des travaux du médecin et botaniste écossais William Roxburgh (1759-1815). L'espèce type est Shorea robusta Gaertn[1]. 
-Liste des espèces
-Selon GRIN            (5 mars 2017)[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce genre a été décrit en 1805 par le botaniste allemand Carl Friedrich von Gaertner (1772-1850), à la suite des travaux du médecin et botaniste écossais William Roxburgh (1759-1815). L'espèce type est Shorea robusta Gaertn. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Shorea</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Shorea</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Liste des espèces</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon GRIN            (5 mars 2017) :
 Shorea acuminata (en) Dyer
 Shorea agami P. S. Ashton
 Shorea albida Symington
@@ -620,8 +673,43 @@
 Shorea teysmanniana Dyer &amp; Brandis
 Shorea uliginosa Foxw.
 Shorea virescens (en) Parijs
-Liste complète
-Selon GBIF       (13 décembre 2023)[3] :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Shorea</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Shorea</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Liste complète</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon GBIF       (13 décembre 2023) :
 Shorea acuminata (en) Dyer
 Shorea acuminatissima (en) Symington
 Shorea acuta (en) P.S.Ashton
